--- a/player_d_dash/defense-dash-3pt_SeasonType_Playoffs_Season_2019-20.xlsx
+++ b/player_d_dash/defense-dash-3pt_SeasonType_Playoffs_Season_2019-20.xlsx
@@ -1104,42 +1104,42 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Brook Lopez</t>
+          <t>Tim Hardaway Jr.</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>MIL</t>
+          <t>DAL</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>28</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>G-F</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>6</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>6</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>31.3%</t>
+          <t>43.3%</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>2.7</t>
+          <t>2.3</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -1149,17 +1149,17 @@
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>41.5</t>
+          <t>35.9</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>36.5</t>
+          <t>38.6</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>5.1</t>
+          <t>-2.7</t>
         </is>
       </c>
     </row>
@@ -1169,42 +1169,42 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Tim Hardaway Jr.</t>
+          <t>Brook Lopez</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>DAL</t>
+          <t>MIL</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>32</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>G-F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>10</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>10</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>43.3%</t>
+          <t>31.3%</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>2.3</t>
+          <t>2.7</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -1214,17 +1214,17 @@
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>35.9</t>
+          <t>41.5</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>38.6</t>
+          <t>36.5</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>-2.7</t>
+          <t>5.1</t>
         </is>
       </c>
     </row>
@@ -1429,22 +1429,22 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Shake Milton</t>
+          <t>Justin Holiday</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>PHI</t>
+          <t>IND</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>31</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>G-F</t>
+          <t>F-G</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -1459,12 +1459,12 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>49.0%</t>
+          <t>50.0%</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>2.0</t>
+          <t>1.5</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -1474,17 +1474,17 @@
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>32.0</t>
+          <t>24.0</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>36.2</t>
+          <t>38.2</t>
         </is>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>-4.2</t>
+          <t>-14.2</t>
         </is>
       </c>
     </row>
@@ -1494,22 +1494,22 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Justin Holiday</t>
+          <t>Shake Milton</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>IND</t>
+          <t>PHI</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>23</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>F-G</t>
+          <t>G-F</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -1524,12 +1524,12 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>50.0%</t>
+          <t>49.0%</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>1.5</t>
+          <t>2.0</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -1539,17 +1539,17 @@
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>24.0</t>
+          <t>32.0</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>38.2</t>
+          <t>36.2</t>
         </is>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>-14.2</t>
+          <t>-4.2</t>
         </is>
       </c>
     </row>
@@ -2339,22 +2339,22 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Steven Adams</t>
+          <t>Donovan Mitchell</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>OKC</t>
+          <t>UTA</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>23</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
@@ -2369,12 +2369,12 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>52.7%</t>
+          <t>58.2%</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>1.9</t>
+          <t>2.0</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
@@ -2384,17 +2384,17 @@
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>33.3</t>
+          <t>35.9</t>
         </is>
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>35.7</t>
+          <t>37.4</t>
         </is>
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>-2.4</t>
+          <t>-1.5</t>
         </is>
       </c>
     </row>
@@ -2404,22 +2404,22 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Donovan Mitchell</t>
+          <t>Steven Adams</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>UTA</t>
+          <t>OKC</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>26</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>C</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
@@ -2434,12 +2434,12 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>58.2%</t>
+          <t>52.7%</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>2.0</t>
+          <t>1.9</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
@@ -2449,17 +2449,17 @@
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>35.9</t>
+          <t>33.3</t>
         </is>
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>37.4</t>
+          <t>35.7</t>
         </is>
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>-1.5</t>
+          <t>-2.4</t>
         </is>
       </c>
     </row>
@@ -3769,42 +3769,42 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>P.J. Tucker</t>
+          <t>Josh Richardson</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>HOU</t>
+          <t>PHI</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>26</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>4</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>4</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>29.0%</t>
+          <t>48.6%</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>1.2</t>
+          <t>1.5</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
@@ -3814,17 +3814,17 @@
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>25.9</t>
+          <t>33.3</t>
         </is>
       </c>
       <c r="L53" t="inlineStr">
         <is>
-          <t>35.6</t>
+          <t>36.8</t>
         </is>
       </c>
       <c r="M53" t="inlineStr">
         <is>
-          <t>-9.7</t>
+          <t>-3.5</t>
         </is>
       </c>
     </row>
@@ -3834,42 +3834,42 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Al Horford</t>
+          <t>Robert Covington</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>PHI</t>
+          <t>HOU</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>29</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>C-F</t>
+          <t>F</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>12</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>11</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>34.0%</t>
+          <t>32.7%</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>1.8</t>
+          <t>2.3</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
@@ -3879,17 +3879,17 @@
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>38.9</t>
+          <t>50.0</t>
         </is>
       </c>
       <c r="L54" t="inlineStr">
         <is>
-          <t>37.0</t>
+          <t>35.8</t>
         </is>
       </c>
       <c r="M54" t="inlineStr">
         <is>
-          <t>1.9</t>
+          <t>14.2</t>
         </is>
       </c>
     </row>
@@ -3899,7 +3899,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Robert Covington</t>
+          <t>P.J. Tucker</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -3909,7 +3909,7 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>35</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
@@ -3924,17 +3924,17 @@
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>12</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>32.7%</t>
+          <t>29.0%</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>2.3</t>
+          <t>1.2</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
@@ -3944,17 +3944,17 @@
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>50.0</t>
+          <t>25.9</t>
         </is>
       </c>
       <c r="L55" t="inlineStr">
         <is>
-          <t>35.8</t>
+          <t>35.6</t>
         </is>
       </c>
       <c r="M55" t="inlineStr">
         <is>
-          <t>14.2</t>
+          <t>-9.7</t>
         </is>
       </c>
     </row>
@@ -3964,7 +3964,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Josh Richardson</t>
+          <t>Al Horford</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -3974,12 +3974,12 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>34</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>C-F</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
@@ -3994,12 +3994,12 @@
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>48.6%</t>
+          <t>34.0%</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>1.5</t>
+          <t>1.8</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
@@ -4009,17 +4009,17 @@
       </c>
       <c r="K56" t="inlineStr">
         <is>
-          <t>33.3</t>
+          <t>38.9</t>
         </is>
       </c>
       <c r="L56" t="inlineStr">
         <is>
-          <t>36.8</t>
+          <t>37.0</t>
         </is>
       </c>
       <c r="M56" t="inlineStr">
         <is>
-          <t>-3.5</t>
+          <t>1.9</t>
         </is>
       </c>
     </row>
@@ -4094,42 +4094,42 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Duncan Robinson</t>
+          <t>Danuel House Jr.</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>MIA</t>
+          <t>HOU</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>27</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>F-G</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>9</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>8</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>38.6%</t>
+          <t>44.8%</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>1.6</t>
+          <t>1.9</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
@@ -4139,17 +4139,17 @@
       </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>37.4</t>
+          <t>43.6</t>
         </is>
       </c>
       <c r="L58" t="inlineStr">
         <is>
-          <t>36.0</t>
+          <t>35.8</t>
         </is>
       </c>
       <c r="M58" t="inlineStr">
         <is>
-          <t>1.4</t>
+          <t>7.8</t>
         </is>
       </c>
     </row>
@@ -4159,42 +4159,42 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Danuel House Jr.</t>
+          <t>Duncan Robinson</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>HOU</t>
+          <t>MIA</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>26</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>F-G</t>
+          <t>F</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>21</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>21</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>44.8%</t>
+          <t>38.6%</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>1.9</t>
+          <t>1.6</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
@@ -4204,17 +4204,17 @@
       </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>43.6</t>
+          <t>37.4</t>
         </is>
       </c>
       <c r="L59" t="inlineStr">
         <is>
-          <t>35.8</t>
+          <t>36.0</t>
         </is>
       </c>
       <c r="M59" t="inlineStr">
         <is>
-          <t>7.8</t>
+          <t>1.4</t>
         </is>
       </c>
     </row>
@@ -4679,17 +4679,17 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Gary Trent Jr.</t>
+          <t>Joe Harris</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>POR</t>
+          <t>BKN</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>28</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
@@ -4699,22 +4699,22 @@
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>2</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>2</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>37.7%</t>
+          <t>32.0%</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>1.2</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
@@ -4724,17 +4724,17 @@
       </c>
       <c r="K67" t="inlineStr">
         <is>
-          <t>30.0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="L67" t="inlineStr">
         <is>
-          <t>34.2</t>
+          <t>37.7</t>
         </is>
       </c>
       <c r="M67" t="inlineStr">
         <is>
-          <t>-4.2</t>
+          <t>-37.7</t>
         </is>
       </c>
     </row>
@@ -4809,17 +4809,17 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Joe Harris</t>
+          <t>Gary Trent Jr.</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>BKN</t>
+          <t>POR</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>21</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
@@ -4829,22 +4829,22 @@
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>5</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>5</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>32.0%</t>
+          <t>37.7%</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>1.2</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
@@ -4854,17 +4854,17 @@
       </c>
       <c r="K69" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>30.0</t>
         </is>
       </c>
       <c r="L69" t="inlineStr">
         <is>
-          <t>37.7</t>
+          <t>34.2</t>
         </is>
       </c>
       <c r="M69" t="inlineStr">
         <is>
-          <t>-37.7</t>
+          <t>-4.2</t>
         </is>
       </c>
     </row>
@@ -5134,22 +5134,22 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>T.J. Warren</t>
+          <t>Caris LeVert</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>IND</t>
+          <t>BKN</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>25</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
@@ -5169,7 +5169,7 @@
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>1.5</t>
+          <t>2.0</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
@@ -5179,17 +5179,17 @@
       </c>
       <c r="K74" t="inlineStr">
         <is>
-          <t>40.0</t>
+          <t>53.3</t>
         </is>
       </c>
       <c r="L74" t="inlineStr">
         <is>
-          <t>34.8</t>
+          <t>38.7</t>
         </is>
       </c>
       <c r="M74" t="inlineStr">
         <is>
-          <t>5.2</t>
+          <t>14.6</t>
         </is>
       </c>
     </row>
@@ -5199,22 +5199,22 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Caris LeVert</t>
+          <t>T.J. Warren</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>BKN</t>
+          <t>IND</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>26</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>F</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
@@ -5234,7 +5234,7 @@
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>2.0</t>
+          <t>1.5</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
@@ -5244,17 +5244,17 @@
       </c>
       <c r="K75" t="inlineStr">
         <is>
-          <t>53.3</t>
+          <t>40.0</t>
         </is>
       </c>
       <c r="L75" t="inlineStr">
         <is>
-          <t>38.7</t>
+          <t>34.8</t>
         </is>
       </c>
       <c r="M75" t="inlineStr">
         <is>
-          <t>14.6</t>
+          <t>5.2</t>
         </is>
       </c>
     </row>
@@ -5394,12 +5394,12 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Kentavious Caldwell-Pope</t>
+          <t>Pat Connaughton</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>LAL</t>
+          <t>MIL</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -5414,22 +5414,22 @@
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>9</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>9</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>44.0%</t>
+          <t>44.6%</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>1.2</t>
+          <t>1.3</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
@@ -5439,17 +5439,17 @@
       </c>
       <c r="K78" t="inlineStr">
         <is>
-          <t>33.8</t>
+          <t>36.4</t>
         </is>
       </c>
       <c r="L78" t="inlineStr">
         <is>
-          <t>37.2</t>
+          <t>36.4</t>
         </is>
       </c>
       <c r="M78" t="inlineStr">
         <is>
-          <t>-3.5</t>
+          <t>0.0</t>
         </is>
       </c>
     </row>
@@ -5459,7 +5459,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>LeBron James</t>
+          <t>Kentavious Caldwell-Pope</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -5469,12 +5469,12 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>27</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
@@ -5484,17 +5484,17 @@
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>21</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>35.3%</t>
+          <t>44.0%</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>1.1</t>
+          <t>1.2</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
@@ -5504,17 +5504,17 @@
       </c>
       <c r="K79" t="inlineStr">
         <is>
-          <t>28.6</t>
+          <t>33.8</t>
         </is>
       </c>
       <c r="L79" t="inlineStr">
         <is>
-          <t>36.4</t>
+          <t>37.2</t>
         </is>
       </c>
       <c r="M79" t="inlineStr">
         <is>
-          <t>-7.9</t>
+          <t>-3.5</t>
         </is>
       </c>
     </row>
@@ -5524,42 +5524,42 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Pat Connaughton</t>
+          <t>LeBron James</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>MIL</t>
+          <t>LAL</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>35</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>F</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>21</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>20</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>44.6%</t>
+          <t>35.3%</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>1.3</t>
+          <t>1.1</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
@@ -5569,17 +5569,17 @@
       </c>
       <c r="K80" t="inlineStr">
         <is>
+          <t>28.6</t>
+        </is>
+      </c>
+      <c r="L80" t="inlineStr">
+        <is>
           <t>36.4</t>
         </is>
       </c>
-      <c r="L80" t="inlineStr">
-        <is>
-          <t>36.4</t>
-        </is>
-      </c>
       <c r="M80" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>-7.9</t>
         </is>
       </c>
     </row>
@@ -5849,7 +5849,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Chris Chiozza</t>
+          <t>Rodions Kurucs</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -5859,12 +5859,12 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>22</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>F</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
@@ -5879,7 +5879,7 @@
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>53.8%</t>
+          <t>32.6%</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
@@ -5899,12 +5899,12 @@
       </c>
       <c r="L85" t="inlineStr">
         <is>
-          <t>39.3</t>
+          <t>37.6</t>
         </is>
       </c>
       <c r="M85" t="inlineStr">
         <is>
-          <t>3.6</t>
+          <t>5.3</t>
         </is>
       </c>
     </row>
@@ -5914,7 +5914,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Rodions Kurucs</t>
+          <t>Chris Chiozza</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -5924,12 +5924,12 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>24</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
@@ -5944,7 +5944,7 @@
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>32.6%</t>
+          <t>53.8%</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
@@ -5964,12 +5964,12 @@
       </c>
       <c r="L86" t="inlineStr">
         <is>
-          <t>37.6</t>
+          <t>39.3</t>
         </is>
       </c>
       <c r="M86" t="inlineStr">
         <is>
-          <t>5.3</t>
+          <t>3.6</t>
         </is>
       </c>
     </row>
@@ -6304,22 +6304,22 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Myles Turner</t>
+          <t>Anfernee Simons</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>IND</t>
+          <t>POR</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>21</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>C-F</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
@@ -6334,12 +6334,12 @@
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>16.3%</t>
+          <t>48.1%</t>
         </is>
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>0.8</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="J92" t="inlineStr">
@@ -6349,17 +6349,17 @@
       </c>
       <c r="K92" t="inlineStr">
         <is>
-          <t>23.1</t>
+          <t>30.8</t>
         </is>
       </c>
       <c r="L92" t="inlineStr">
         <is>
-          <t>35.3</t>
+          <t>32.4</t>
         </is>
       </c>
       <c r="M92" t="inlineStr">
         <is>
-          <t>-12.2</t>
+          <t>-1.6</t>
         </is>
       </c>
     </row>
@@ -6369,22 +6369,22 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Anfernee Simons</t>
+          <t>Myles Turner</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>POR</t>
+          <t>IND</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>24</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>C-F</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
@@ -6399,12 +6399,12 @@
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>48.1%</t>
+          <t>16.3%</t>
         </is>
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>0.8</t>
         </is>
       </c>
       <c r="J93" t="inlineStr">
@@ -6414,17 +6414,17 @@
       </c>
       <c r="K93" t="inlineStr">
         <is>
-          <t>30.8</t>
+          <t>23.1</t>
         </is>
       </c>
       <c r="L93" t="inlineStr">
         <is>
-          <t>32.4</t>
+          <t>35.3</t>
         </is>
       </c>
       <c r="M93" t="inlineStr">
         <is>
-          <t>-1.6</t>
+          <t>-12.2</t>
         </is>
       </c>
     </row>
@@ -6759,12 +6759,12 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>BJ Johnson</t>
+          <t>Edmond Sumner</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>ORL</t>
+          <t>IND</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
@@ -6774,22 +6774,22 @@
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>100.0%</t>
+          <t>40.0%</t>
         </is>
       </c>
       <c r="I99" t="inlineStr">
@@ -6809,12 +6809,12 @@
       </c>
       <c r="L99" t="inlineStr">
         <is>
-          <t>38.6</t>
+          <t>41.5</t>
         </is>
       </c>
       <c r="M99" t="inlineStr">
         <is>
-          <t>-5.2</t>
+          <t>-8.2</t>
         </is>
       </c>
     </row>
@@ -6824,17 +6824,17 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Seth Curry</t>
+          <t>Alec Burks</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>DAL</t>
+          <t>PHI</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>28</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
@@ -6844,22 +6844,22 @@
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>4</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>4</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>32.1%</t>
+          <t>44.4%</t>
         </is>
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>0.7</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="J100" t="inlineStr">
@@ -6869,17 +6869,17 @@
       </c>
       <c r="K100" t="inlineStr">
         <is>
-          <t>22.2</t>
+          <t>33.3</t>
         </is>
       </c>
       <c r="L100" t="inlineStr">
         <is>
-          <t>39.1</t>
+          <t>35.7</t>
         </is>
       </c>
       <c r="M100" t="inlineStr">
         <is>
-          <t>-16.9</t>
+          <t>-2.3</t>
         </is>
       </c>
     </row>
@@ -6954,17 +6954,17 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>Aaron Holiday</t>
+          <t>Antonius Cleveland</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>IND</t>
+          <t>DAL</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>26</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
@@ -6974,22 +6974,22 @@
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>48.0%</t>
+          <t>100.0%</t>
         </is>
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>2.3</t>
+          <t>2.0</t>
         </is>
       </c>
       <c r="J102" t="inlineStr">
@@ -6999,17 +6999,17 @@
       </c>
       <c r="K102" t="inlineStr">
         <is>
-          <t>75.0</t>
+          <t>66.7</t>
         </is>
       </c>
       <c r="L102" t="inlineStr">
         <is>
-          <t>36.0</t>
+          <t>32.8</t>
         </is>
       </c>
       <c r="M102" t="inlineStr">
         <is>
-          <t>39.1</t>
+          <t>33.9</t>
         </is>
       </c>
     </row>
@@ -7019,42 +7019,42 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>Edmond Sumner</t>
+          <t>Matisse Thybulle</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>IND</t>
+          <t>PHI</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>23</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>G-F</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>40.0%</t>
+          <t>41.4%</t>
         </is>
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>1.8</t>
         </is>
       </c>
       <c r="J103" t="inlineStr">
@@ -7064,17 +7064,17 @@
       </c>
       <c r="K103" t="inlineStr">
         <is>
-          <t>33.3</t>
+          <t>58.3</t>
         </is>
       </c>
       <c r="L103" t="inlineStr">
         <is>
-          <t>41.5</t>
+          <t>38.5</t>
         </is>
       </c>
       <c r="M103" t="inlineStr">
         <is>
-          <t>-8.2</t>
+          <t>19.8</t>
         </is>
       </c>
     </row>
@@ -7084,17 +7084,17 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>Alec Burks</t>
+          <t>Aaron Holiday</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>PHI</t>
+          <t>IND</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>23</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
@@ -7114,12 +7114,12 @@
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>44.4%</t>
+          <t>48.0%</t>
         </is>
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>2.3</t>
         </is>
       </c>
       <c r="J104" t="inlineStr">
@@ -7129,17 +7129,17 @@
       </c>
       <c r="K104" t="inlineStr">
         <is>
-          <t>33.3</t>
+          <t>75.0</t>
         </is>
       </c>
       <c r="L104" t="inlineStr">
         <is>
-          <t>35.7</t>
+          <t>36.0</t>
         </is>
       </c>
       <c r="M104" t="inlineStr">
         <is>
-          <t>-2.3</t>
+          <t>39.1</t>
         </is>
       </c>
     </row>
@@ -7149,22 +7149,22 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>Antonius Cleveland</t>
+          <t>BJ Johnson</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>DAL</t>
+          <t>ORL</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>24</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>F</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
@@ -7184,7 +7184,7 @@
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>2.0</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="J105" t="inlineStr">
@@ -7194,17 +7194,17 @@
       </c>
       <c r="K105" t="inlineStr">
         <is>
-          <t>66.7</t>
+          <t>33.3</t>
         </is>
       </c>
       <c r="L105" t="inlineStr">
         <is>
-          <t>32.8</t>
+          <t>38.6</t>
         </is>
       </c>
       <c r="M105" t="inlineStr">
         <is>
-          <t>33.9</t>
+          <t>-5.2</t>
         </is>
       </c>
     </row>
@@ -7214,42 +7214,42 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>Matisse Thybulle</t>
+          <t>Seth Curry</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>PHI</t>
+          <t>DAL</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>29</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>G-F</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>6</t>
         </is>
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>6</t>
         </is>
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>41.4%</t>
+          <t>32.1%</t>
         </is>
       </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t>1.8</t>
+          <t>0.7</t>
         </is>
       </c>
       <c r="J106" t="inlineStr">
@@ -7259,17 +7259,17 @@
       </c>
       <c r="K106" t="inlineStr">
         <is>
-          <t>58.3</t>
+          <t>22.2</t>
         </is>
       </c>
       <c r="L106" t="inlineStr">
         <is>
-          <t>38.5</t>
+          <t>39.1</t>
         </is>
       </c>
       <c r="M106" t="inlineStr">
         <is>
-          <t>19.8</t>
+          <t>-16.9</t>
         </is>
       </c>
     </row>
@@ -7539,22 +7539,22 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>Tobias Harris</t>
+          <t>Tyler Johnson</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>PHI</t>
+          <t>BKN</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>28</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F111" t="inlineStr">
@@ -7569,12 +7569,12 @@
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>29.7%</t>
+          <t>39.3%</t>
         </is>
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>0.8</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="J111" t="inlineStr">
@@ -7584,17 +7584,17 @@
       </c>
       <c r="K111" t="inlineStr">
         <is>
-          <t>27.3</t>
+          <t>36.4</t>
         </is>
       </c>
       <c r="L111" t="inlineStr">
         <is>
-          <t>36.6</t>
+          <t>35.6</t>
         </is>
       </c>
       <c r="M111" t="inlineStr">
         <is>
-          <t>-9.4</t>
+          <t>0.7</t>
         </is>
       </c>
     </row>
@@ -7604,22 +7604,22 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>Tyler Johnson</t>
+          <t>Wenyen Gabriel</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>BKN</t>
+          <t>POR</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>23</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>F</t>
         </is>
       </c>
       <c r="F112" t="inlineStr">
@@ -7629,17 +7629,17 @@
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>39.3%</t>
+          <t>30.6%</t>
         </is>
       </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>0.3</t>
         </is>
       </c>
       <c r="J112" t="inlineStr">
@@ -7649,17 +7649,17 @@
       </c>
       <c r="K112" t="inlineStr">
         <is>
-          <t>36.4</t>
+          <t>9.1</t>
         </is>
       </c>
       <c r="L112" t="inlineStr">
         <is>
-          <t>35.6</t>
+          <t>35.7</t>
         </is>
       </c>
       <c r="M112" t="inlineStr">
         <is>
-          <t>0.7</t>
+          <t>-26.6</t>
         </is>
       </c>
     </row>
@@ -7669,17 +7669,17 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>Wenyen Gabriel</t>
+          <t>Tobias Harris</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>POR</t>
+          <t>PHI</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>27</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
@@ -7694,17 +7694,17 @@
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>30.6%</t>
+          <t>29.7%</t>
         </is>
       </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t>0.3</t>
+          <t>0.8</t>
         </is>
       </c>
       <c r="J113" t="inlineStr">
@@ -7714,17 +7714,17 @@
       </c>
       <c r="K113" t="inlineStr">
         <is>
-          <t>9.1</t>
+          <t>27.3</t>
         </is>
       </c>
       <c r="L113" t="inlineStr">
         <is>
-          <t>35.7</t>
+          <t>36.6</t>
         </is>
       </c>
       <c r="M113" t="inlineStr">
         <is>
-          <t>-26.6</t>
+          <t>-9.4</t>
         </is>
       </c>
     </row>
@@ -8319,17 +8319,17 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>Terrance Ferguson</t>
+          <t>Donte DiVincenzo</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>OKC</t>
+          <t>MIL</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>23</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
@@ -8339,22 +8339,22 @@
       </c>
       <c r="F123" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>10</t>
         </is>
       </c>
       <c r="G123" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>8</t>
         </is>
       </c>
       <c r="H123" t="inlineStr">
         <is>
-          <t>52.6%</t>
+          <t>47.2%</t>
         </is>
       </c>
       <c r="I123" t="inlineStr">
         <is>
-          <t>0.5</t>
+          <t>0.8</t>
         </is>
       </c>
       <c r="J123" t="inlineStr">
@@ -8364,17 +8364,17 @@
       </c>
       <c r="K123" t="inlineStr">
         <is>
-          <t>20.0</t>
+          <t>32.0</t>
         </is>
       </c>
       <c r="L123" t="inlineStr">
         <is>
-          <t>34.6</t>
+          <t>36.7</t>
         </is>
       </c>
       <c r="M123" t="inlineStr">
         <is>
-          <t>-14.6</t>
+          <t>-4.7</t>
         </is>
       </c>
     </row>
@@ -8384,42 +8384,42 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>Donte DiVincenzo</t>
+          <t>Justin Jackson</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>MIL</t>
+          <t>DAL</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>25</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>F</t>
         </is>
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>2</t>
         </is>
       </c>
       <c r="G124" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>2</t>
         </is>
       </c>
       <c r="H124" t="inlineStr">
         <is>
-          <t>47.2%</t>
+          <t>55.6%</t>
         </is>
       </c>
       <c r="I124" t="inlineStr">
         <is>
-          <t>0.8</t>
+          <t>2.5</t>
         </is>
       </c>
       <c r="J124" t="inlineStr">
@@ -8429,17 +8429,17 @@
       </c>
       <c r="K124" t="inlineStr">
         <is>
-          <t>32.0</t>
+          <t>100</t>
         </is>
       </c>
       <c r="L124" t="inlineStr">
         <is>
-          <t>36.7</t>
+          <t>36.3</t>
         </is>
       </c>
       <c r="M124" t="inlineStr">
         <is>
-          <t>-4.7</t>
+          <t>63.7</t>
         </is>
       </c>
     </row>
@@ -8449,62 +8449,62 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>Justin Jackson</t>
+          <t>Terrance Ferguson</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>DAL</t>
+          <t>OKC</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>22</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F125" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="G125" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="H125" t="inlineStr">
         <is>
-          <t>55.6%</t>
+          <t>52.6%</t>
         </is>
       </c>
       <c r="I125" t="inlineStr">
         <is>
+          <t>0.5</t>
+        </is>
+      </c>
+      <c r="J125" t="inlineStr">
+        <is>
           <t>2.5</t>
         </is>
       </c>
-      <c r="J125" t="inlineStr">
-        <is>
-          <t>2.5</t>
-        </is>
-      </c>
       <c r="K125" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>20.0</t>
         </is>
       </c>
       <c r="L125" t="inlineStr">
         <is>
-          <t>36.3</t>
+          <t>34.6</t>
         </is>
       </c>
       <c r="M125" t="inlineStr">
         <is>
-          <t>63.7</t>
+          <t>-14.6</t>
         </is>
       </c>
     </row>
@@ -8709,42 +8709,42 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>Terence Davis</t>
+          <t>Kyle Kuzma</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>TOR</t>
+          <t>LAL</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>24</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>F</t>
         </is>
       </c>
       <c r="F129" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>21</t>
         </is>
       </c>
       <c r="G129" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>19</t>
         </is>
       </c>
       <c r="H129" t="inlineStr">
         <is>
-          <t>37.8%</t>
+          <t>32.0%</t>
         </is>
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t>0.7</t>
+          <t>0.9</t>
         </is>
       </c>
       <c r="J129" t="inlineStr">
@@ -8754,17 +8754,17 @@
       </c>
       <c r="K129" t="inlineStr">
         <is>
-          <t>28.6</t>
+          <t>36.7</t>
         </is>
       </c>
       <c r="L129" t="inlineStr">
         <is>
-          <t>32.0</t>
+          <t>35.8</t>
         </is>
       </c>
       <c r="M129" t="inlineStr">
         <is>
-          <t>-3.4</t>
+          <t>0.9</t>
         </is>
       </c>
     </row>
@@ -8774,12 +8774,12 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>Kyle Kuzma</t>
+          <t>Jeremiah Martin</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>LAL</t>
+          <t>BKN</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
@@ -8789,27 +8789,27 @@
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F130" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>3</t>
         </is>
       </c>
       <c r="G130" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>3</t>
         </is>
       </c>
       <c r="H130" t="inlineStr">
         <is>
-          <t>32.0%</t>
+          <t>41.2%</t>
         </is>
       </c>
       <c r="I130" t="inlineStr">
         <is>
-          <t>0.9</t>
+          <t>1.7</t>
         </is>
       </c>
       <c r="J130" t="inlineStr">
@@ -8819,17 +8819,17 @@
       </c>
       <c r="K130" t="inlineStr">
         <is>
-          <t>36.7</t>
+          <t>71.4</t>
         </is>
       </c>
       <c r="L130" t="inlineStr">
         <is>
-          <t>35.8</t>
+          <t>33.7</t>
         </is>
       </c>
       <c r="M130" t="inlineStr">
         <is>
-          <t>0.9</t>
+          <t>37.7</t>
         </is>
       </c>
     </row>
@@ -8839,42 +8839,42 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>Jaylen Hoard</t>
+          <t>Terence Davis</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>POR</t>
+          <t>TOR</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>23</t>
         </is>
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>6</t>
         </is>
       </c>
       <c r="G131" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>5</t>
         </is>
       </c>
       <c r="H131" t="inlineStr">
         <is>
-          <t>43.8%</t>
+          <t>37.8%</t>
         </is>
       </c>
       <c r="I131" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>0.7</t>
         </is>
       </c>
       <c r="J131" t="inlineStr">
@@ -8884,7 +8884,7 @@
       </c>
       <c r="K131" t="inlineStr">
         <is>
-          <t>42.9</t>
+          <t>28.6</t>
         </is>
       </c>
       <c r="L131" t="inlineStr">
@@ -8894,7 +8894,7 @@
       </c>
       <c r="M131" t="inlineStr">
         <is>
-          <t>10.9</t>
+          <t>-3.4</t>
         </is>
       </c>
     </row>
@@ -8904,22 +8904,22 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>Jeremiah Martin</t>
+          <t>Jaylen Hoard</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>BKN</t>
+          <t>POR</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>21</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>F</t>
         </is>
       </c>
       <c r="F132" t="inlineStr">
@@ -8929,17 +8929,17 @@
       </c>
       <c r="G132" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="H132" t="inlineStr">
         <is>
-          <t>41.2%</t>
+          <t>43.8%</t>
         </is>
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t>1.7</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="J132" t="inlineStr">
@@ -8949,17 +8949,17 @@
       </c>
       <c r="K132" t="inlineStr">
         <is>
-          <t>71.4</t>
+          <t>42.9</t>
         </is>
       </c>
       <c r="L132" t="inlineStr">
         <is>
-          <t>33.7</t>
+          <t>32.0</t>
         </is>
       </c>
       <c r="M132" t="inlineStr">
         <is>
-          <t>37.7</t>
+          <t>10.9</t>
         </is>
       </c>
     </row>
@@ -9229,12 +9229,12 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>Bruno Caboclo</t>
+          <t>Jarrell Brantley</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>HOU</t>
+          <t>UTA</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
@@ -9259,7 +9259,7 @@
       </c>
       <c r="H137" t="inlineStr">
         <is>
-          <t>66.7%</t>
+          <t>28.6%</t>
         </is>
       </c>
       <c r="I137" t="inlineStr">
@@ -9279,12 +9279,12 @@
       </c>
       <c r="L137" t="inlineStr">
         <is>
-          <t>27.3</t>
+          <t>41.7</t>
         </is>
       </c>
       <c r="M137" t="inlineStr">
         <is>
-          <t>-27.3</t>
+          <t>-41.7</t>
         </is>
       </c>
     </row>
@@ -9294,17 +9294,17 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>Delon Wright</t>
+          <t>Rayjon Tucker</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>DAL</t>
+          <t>UTA</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>22</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
@@ -9314,22 +9314,22 @@
       </c>
       <c r="F138" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G138" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="H138" t="inlineStr">
         <is>
-          <t>60.0%</t>
+          <t>50.0%</t>
         </is>
       </c>
       <c r="I138" t="inlineStr">
         <is>
-          <t>1.3</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="J138" t="inlineStr">
@@ -9339,17 +9339,17 @@
       </c>
       <c r="K138" t="inlineStr">
         <is>
-          <t>66.7</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="L138" t="inlineStr">
         <is>
-          <t>36.9</t>
+          <t>34.4</t>
         </is>
       </c>
       <c r="M138" t="inlineStr">
         <is>
-          <t>29.8</t>
+          <t>-34.4</t>
         </is>
       </c>
     </row>
@@ -9359,42 +9359,42 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>Jordan Clarkson</t>
+          <t>Patrick Patterson</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>UTA</t>
+          <t>LAC</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>31</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>F</t>
         </is>
       </c>
       <c r="F139" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G139" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>1</t>
         </is>
       </c>
       <c r="H139" t="inlineStr">
         <is>
-          <t>28.0%</t>
+          <t>66.7%</t>
         </is>
       </c>
       <c r="I139" t="inlineStr">
         <is>
-          <t>0.7</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="J139" t="inlineStr">
@@ -9404,17 +9404,17 @@
       </c>
       <c r="K139" t="inlineStr">
         <is>
-          <t>35.7</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="L139" t="inlineStr">
         <is>
-          <t>36.3</t>
+          <t>14.7</t>
         </is>
       </c>
       <c r="M139" t="inlineStr">
         <is>
-          <t>-0.6</t>
+          <t>-14.7</t>
         </is>
       </c>
     </row>
@@ -9424,17 +9424,17 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>Patrick Patterson</t>
+          <t>Bruno Caboclo</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>LAC</t>
+          <t>HOU</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>24</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
@@ -9474,12 +9474,12 @@
       </c>
       <c r="L140" t="inlineStr">
         <is>
-          <t>14.7</t>
+          <t>27.3</t>
         </is>
       </c>
       <c r="M140" t="inlineStr">
         <is>
-          <t>-14.7</t>
+          <t>-27.3</t>
         </is>
       </c>
     </row>
@@ -9554,42 +9554,42 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>Tyler Cook</t>
+          <t>Raul Neto</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>DEN</t>
+          <t>PHI</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>28</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F142" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="G142" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="H142" t="inlineStr">
         <is>
-          <t>66.7%</t>
+          <t>40.0%</t>
         </is>
       </c>
       <c r="I142" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0.5</t>
         </is>
       </c>
       <c r="J142" t="inlineStr">
@@ -9599,17 +9599,17 @@
       </c>
       <c r="K142" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>25.0</t>
         </is>
       </c>
       <c r="L142" t="inlineStr">
         <is>
-          <t>26.8</t>
+          <t>35.7</t>
         </is>
       </c>
       <c r="M142" t="inlineStr">
         <is>
-          <t>-26.8</t>
+          <t>-10.7</t>
         </is>
       </c>
     </row>
@@ -9619,7 +9619,7 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>Rayjon Tucker</t>
+          <t>Jordan Clarkson</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
@@ -9629,7 +9629,7 @@
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>28</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
@@ -9639,22 +9639,22 @@
       </c>
       <c r="F143" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>7</t>
         </is>
       </c>
       <c r="G143" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>6</t>
         </is>
       </c>
       <c r="H143" t="inlineStr">
         <is>
-          <t>50.0%</t>
+          <t>28.0%</t>
         </is>
       </c>
       <c r="I143" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0.7</t>
         </is>
       </c>
       <c r="J143" t="inlineStr">
@@ -9664,17 +9664,17 @@
       </c>
       <c r="K143" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>35.7</t>
         </is>
       </c>
       <c r="L143" t="inlineStr">
         <is>
-          <t>34.4</t>
+          <t>36.3</t>
         </is>
       </c>
       <c r="M143" t="inlineStr">
         <is>
-          <t>-34.4</t>
+          <t>-0.6</t>
         </is>
       </c>
     </row>
@@ -9684,22 +9684,22 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>Jarrell Brantley</t>
+          <t>Andre Roberson</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>UTA</t>
+          <t>OKC</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>28</t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>G-F</t>
         </is>
       </c>
       <c r="F144" t="inlineStr">
@@ -9714,7 +9714,7 @@
       </c>
       <c r="H144" t="inlineStr">
         <is>
-          <t>28.6%</t>
+          <t>66.7%</t>
         </is>
       </c>
       <c r="I144" t="inlineStr">
@@ -9734,12 +9734,12 @@
       </c>
       <c r="L144" t="inlineStr">
         <is>
-          <t>41.7</t>
+          <t>35.2</t>
         </is>
       </c>
       <c r="M144" t="inlineStr">
         <is>
-          <t>-41.7</t>
+          <t>-35.2</t>
         </is>
       </c>
     </row>
@@ -9749,22 +9749,22 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>Andre Roberson</t>
+          <t>Tyler Cook</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>OKC</t>
+          <t>DEN</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>22</t>
         </is>
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>G-F</t>
+          <t>F</t>
         </is>
       </c>
       <c r="F145" t="inlineStr">
@@ -9799,12 +9799,12 @@
       </c>
       <c r="L145" t="inlineStr">
         <is>
-          <t>35.2</t>
+          <t>26.8</t>
         </is>
       </c>
       <c r="M145" t="inlineStr">
         <is>
-          <t>-35.2</t>
+          <t>-26.8</t>
         </is>
       </c>
     </row>
@@ -9814,12 +9814,12 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>Raul Neto</t>
+          <t>Delon Wright</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>PHI</t>
+          <t>DAL</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
@@ -9834,22 +9834,22 @@
       </c>
       <c r="F146" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="G146" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="H146" t="inlineStr">
         <is>
-          <t>40.0%</t>
+          <t>60.0%</t>
         </is>
       </c>
       <c r="I146" t="inlineStr">
         <is>
-          <t>0.5</t>
+          <t>1.3</t>
         </is>
       </c>
       <c r="J146" t="inlineStr">
@@ -9859,17 +9859,17 @@
       </c>
       <c r="K146" t="inlineStr">
         <is>
-          <t>25.0</t>
+          <t>66.7</t>
         </is>
       </c>
       <c r="L146" t="inlineStr">
         <is>
-          <t>35.7</t>
+          <t>36.9</t>
         </is>
       </c>
       <c r="M146" t="inlineStr">
         <is>
-          <t>-10.7</t>
+          <t>29.8</t>
         </is>
       </c>
     </row>
@@ -10074,42 +10074,42 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>JaKarr Sampson</t>
+          <t>Patrick Beverley</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>IND</t>
+          <t>LAC</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>31</t>
         </is>
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F150" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>8</t>
         </is>
       </c>
       <c r="G150" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>6</t>
         </is>
       </c>
       <c r="H150" t="inlineStr">
         <is>
-          <t>36.8%</t>
+          <t>31.8%</t>
         </is>
       </c>
       <c r="I150" t="inlineStr">
         <is>
-          <t>0.8</t>
+          <t>1.1</t>
         </is>
       </c>
       <c r="J150" t="inlineStr">
@@ -10119,17 +10119,17 @@
       </c>
       <c r="K150" t="inlineStr">
         <is>
-          <t>42.9</t>
+          <t>64.3</t>
         </is>
       </c>
       <c r="L150" t="inlineStr">
         <is>
-          <t>36.7</t>
+          <t>38.6</t>
         </is>
       </c>
       <c r="M150" t="inlineStr">
         <is>
-          <t>6.2</t>
+          <t>25.7</t>
         </is>
       </c>
     </row>
@@ -10139,17 +10139,17 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>Doug McDermott</t>
+          <t>Semi Ojeleye</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>IND</t>
+          <t>BOS</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>25</t>
         </is>
       </c>
       <c r="E151" t="inlineStr">
@@ -10159,22 +10159,22 @@
       </c>
       <c r="F151" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>12</t>
         </is>
       </c>
       <c r="G151" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>11</t>
         </is>
       </c>
       <c r="H151" t="inlineStr">
         <is>
-          <t>63.6%</t>
+          <t>46.7%</t>
         </is>
       </c>
       <c r="I151" t="inlineStr">
         <is>
-          <t>0.3</t>
+          <t>0.6</t>
         </is>
       </c>
       <c r="J151" t="inlineStr">
@@ -10184,17 +10184,17 @@
       </c>
       <c r="K151" t="inlineStr">
         <is>
-          <t>14.3</t>
+          <t>33.3</t>
         </is>
       </c>
       <c r="L151" t="inlineStr">
         <is>
-          <t>34.7</t>
+          <t>37.1</t>
         </is>
       </c>
       <c r="M151" t="inlineStr">
         <is>
-          <t>-20.4</t>
+          <t>-3.8</t>
         </is>
       </c>
     </row>
@@ -10204,17 +10204,17 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>Semi Ojeleye</t>
+          <t>JaKarr Sampson</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>IND</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>27</t>
         </is>
       </c>
       <c r="E152" t="inlineStr">
@@ -10224,22 +10224,22 @@
       </c>
       <c r="F152" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>4</t>
         </is>
       </c>
       <c r="G152" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>3</t>
         </is>
       </c>
       <c r="H152" t="inlineStr">
         <is>
-          <t>46.7%</t>
+          <t>36.8%</t>
         </is>
       </c>
       <c r="I152" t="inlineStr">
         <is>
-          <t>0.6</t>
+          <t>0.8</t>
         </is>
       </c>
       <c r="J152" t="inlineStr">
@@ -10249,17 +10249,17 @@
       </c>
       <c r="K152" t="inlineStr">
         <is>
-          <t>33.3</t>
+          <t>42.9</t>
         </is>
       </c>
       <c r="L152" t="inlineStr">
         <is>
-          <t>37.1</t>
+          <t>36.7</t>
         </is>
       </c>
       <c r="M152" t="inlineStr">
         <is>
-          <t>-3.8</t>
+          <t>6.2</t>
         </is>
       </c>
     </row>
@@ -10269,42 +10269,42 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>Patrick Beverley</t>
+          <t>Doug McDermott</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>LAC</t>
+          <t>IND</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>28</t>
         </is>
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>F</t>
         </is>
       </c>
       <c r="F153" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>4</t>
         </is>
       </c>
       <c r="G153" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>4</t>
         </is>
       </c>
       <c r="H153" t="inlineStr">
         <is>
-          <t>31.8%</t>
+          <t>63.6%</t>
         </is>
       </c>
       <c r="I153" t="inlineStr">
         <is>
-          <t>1.1</t>
+          <t>0.3</t>
         </is>
       </c>
       <c r="J153" t="inlineStr">
@@ -10314,17 +10314,17 @@
       </c>
       <c r="K153" t="inlineStr">
         <is>
-          <t>64.3</t>
+          <t>14.3</t>
         </is>
       </c>
       <c r="L153" t="inlineStr">
         <is>
-          <t>38.6</t>
+          <t>34.7</t>
         </is>
       </c>
       <c r="M153" t="inlineStr">
         <is>
-          <t>25.7</t>
+          <t>-20.4</t>
         </is>
       </c>
     </row>
@@ -10464,22 +10464,22 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>Hamidou Diallo</t>
+          <t>Justin Anderson</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>OKC</t>
+          <t>BKN</t>
         </is>
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>26</t>
         </is>
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>F-G</t>
         </is>
       </c>
       <c r="F156" t="inlineStr">
@@ -10494,12 +10494,12 @@
       </c>
       <c r="H156" t="inlineStr">
         <is>
-          <t>50.0%</t>
+          <t>41.7%</t>
         </is>
       </c>
       <c r="I156" t="inlineStr">
         <is>
-          <t>1.3</t>
+          <t>1.7</t>
         </is>
       </c>
       <c r="J156" t="inlineStr">
@@ -10509,17 +10509,17 @@
       </c>
       <c r="K156" t="inlineStr">
         <is>
-          <t>80.0</t>
+          <t>100</t>
         </is>
       </c>
       <c r="L156" t="inlineStr">
         <is>
-          <t>33.8</t>
+          <t>41.3</t>
         </is>
       </c>
       <c r="M156" t="inlineStr">
         <is>
-          <t>46.2</t>
+          <t>58.7</t>
         </is>
       </c>
     </row>
@@ -10529,22 +10529,22 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>Stanley Johnson</t>
+          <t>Hamidou Diallo</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>TOR</t>
+          <t>OKC</t>
         </is>
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>21</t>
         </is>
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>F-G</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F157" t="inlineStr">
@@ -10559,12 +10559,12 @@
       </c>
       <c r="H157" t="inlineStr">
         <is>
-          <t>62.5%</t>
+          <t>50.0%</t>
         </is>
       </c>
       <c r="I157" t="inlineStr">
         <is>
-          <t>0.7</t>
+          <t>1.3</t>
         </is>
       </c>
       <c r="J157" t="inlineStr">
@@ -10574,17 +10574,17 @@
       </c>
       <c r="K157" t="inlineStr">
         <is>
-          <t>40.0</t>
+          <t>80.0</t>
         </is>
       </c>
       <c r="L157" t="inlineStr">
         <is>
-          <t>31.3</t>
+          <t>33.8</t>
         </is>
       </c>
       <c r="M157" t="inlineStr">
         <is>
-          <t>8.7</t>
+          <t>46.2</t>
         </is>
       </c>
     </row>
@@ -10659,17 +10659,17 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>Justin Anderson</t>
+          <t>Stanley Johnson</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>BKN</t>
+          <t>TOR</t>
         </is>
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>24</t>
         </is>
       </c>
       <c r="E159" t="inlineStr">
@@ -10689,32 +10689,32 @@
       </c>
       <c r="H159" t="inlineStr">
         <is>
-          <t>41.7%</t>
+          <t>62.5%</t>
         </is>
       </c>
       <c r="I159" t="inlineStr">
         <is>
+          <t>0.7</t>
+        </is>
+      </c>
+      <c r="J159" t="inlineStr">
+        <is>
           <t>1.7</t>
         </is>
       </c>
-      <c r="J159" t="inlineStr">
-        <is>
-          <t>1.7</t>
-        </is>
-      </c>
       <c r="K159" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>40.0</t>
         </is>
       </c>
       <c r="L159" t="inlineStr">
         <is>
-          <t>41.3</t>
+          <t>31.3</t>
         </is>
       </c>
       <c r="M159" t="inlineStr">
         <is>
-          <t>58.7</t>
+          <t>8.7</t>
         </is>
       </c>
     </row>
@@ -10854,22 +10854,22 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>Ersan Ilyasova</t>
+          <t>Jaylen Adams</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>MIL</t>
+          <t>POR</t>
         </is>
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>24</t>
         </is>
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F162" t="inlineStr">
@@ -10884,12 +10884,12 @@
       </c>
       <c r="H162" t="inlineStr">
         <is>
-          <t>33.3%</t>
+          <t>60.0%</t>
         </is>
       </c>
       <c r="I162" t="inlineStr">
         <is>
-          <t>0.5</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="J162" t="inlineStr">
@@ -10899,17 +10899,17 @@
       </c>
       <c r="K162" t="inlineStr">
         <is>
-          <t>33.3</t>
+          <t>66.7</t>
         </is>
       </c>
       <c r="L162" t="inlineStr">
         <is>
-          <t>32.9</t>
+          <t>21.2</t>
         </is>
       </c>
       <c r="M162" t="inlineStr">
         <is>
-          <t>0.5</t>
+          <t>45.5</t>
         </is>
       </c>
     </row>
@@ -10984,42 +10984,42 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>Troy Daniels</t>
+          <t>Ersan Ilyasova</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>DEN</t>
+          <t>MIL</t>
         </is>
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>33</t>
         </is>
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>F</t>
         </is>
       </c>
       <c r="F164" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="G164" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="H164" t="inlineStr">
         <is>
-          <t>75.0%</t>
+          <t>33.3%</t>
         </is>
       </c>
       <c r="I164" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>0.5</t>
         </is>
       </c>
       <c r="J164" t="inlineStr">
@@ -11029,17 +11029,17 @@
       </c>
       <c r="K164" t="inlineStr">
         <is>
-          <t>66.7</t>
+          <t>33.3</t>
         </is>
       </c>
       <c r="L164" t="inlineStr">
         <is>
-          <t>31.1</t>
+          <t>32.9</t>
         </is>
       </c>
       <c r="M164" t="inlineStr">
         <is>
-          <t>35.6</t>
+          <t>0.5</t>
         </is>
       </c>
     </row>
@@ -11114,42 +11114,42 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>Jaylen Adams</t>
+          <t>Michael Kidd-Gilchrist</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>POR</t>
+          <t>DAL</t>
         </is>
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>26</t>
         </is>
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>F</t>
         </is>
       </c>
       <c r="F166" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>6</t>
         </is>
       </c>
       <c r="G166" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="H166" t="inlineStr">
         <is>
-          <t>60.0%</t>
+          <t>32.1%</t>
         </is>
       </c>
       <c r="I166" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>0.3</t>
         </is>
       </c>
       <c r="J166" t="inlineStr">
@@ -11159,17 +11159,17 @@
       </c>
       <c r="K166" t="inlineStr">
         <is>
-          <t>66.7</t>
+          <t>22.2</t>
         </is>
       </c>
       <c r="L166" t="inlineStr">
         <is>
-          <t>21.2</t>
+          <t>38.3</t>
         </is>
       </c>
       <c r="M166" t="inlineStr">
         <is>
-          <t>45.5</t>
+          <t>-16.1</t>
         </is>
       </c>
     </row>
@@ -11179,42 +11179,42 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>Michael Kidd-Gilchrist</t>
+          <t>Troy Daniels</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>DAL</t>
+          <t>DEN</t>
         </is>
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>28</t>
         </is>
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F167" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>4</t>
         </is>
       </c>
       <c r="G167" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="H167" t="inlineStr">
         <is>
-          <t>32.1%</t>
+          <t>75.0%</t>
         </is>
       </c>
       <c r="I167" t="inlineStr">
         <is>
-          <t>0.3</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="J167" t="inlineStr">
@@ -11224,17 +11224,17 @@
       </c>
       <c r="K167" t="inlineStr">
         <is>
-          <t>22.2</t>
+          <t>66.7</t>
         </is>
       </c>
       <c r="L167" t="inlineStr">
         <is>
-          <t>38.3</t>
+          <t>31.1</t>
         </is>
       </c>
       <c r="M167" t="inlineStr">
         <is>
-          <t>-16.1</t>
+          <t>35.6</t>
         </is>
       </c>
     </row>
@@ -11439,17 +11439,17 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>Solomon Hill</t>
+          <t>Keita Bates-Diop</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>MIA</t>
+          <t>DEN</t>
         </is>
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>24</t>
         </is>
       </c>
       <c r="E171" t="inlineStr">
@@ -11459,17 +11459,17 @@
       </c>
       <c r="F171" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>3</t>
         </is>
       </c>
       <c r="G171" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>2</t>
         </is>
       </c>
       <c r="H171" t="inlineStr">
         <is>
-          <t>50.0%</t>
+          <t>33.3%</t>
         </is>
       </c>
       <c r="I171" t="inlineStr">
@@ -11489,12 +11489,12 @@
       </c>
       <c r="L171" t="inlineStr">
         <is>
-          <t>35.3</t>
+          <t>31.9</t>
         </is>
       </c>
       <c r="M171" t="inlineStr">
         <is>
-          <t>-10.3</t>
+          <t>-6.9</t>
         </is>
       </c>
     </row>
@@ -11569,42 +11569,42 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>Matt Thomas</t>
+          <t>Kristaps Porzingis</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>TOR</t>
+          <t>DAL</t>
         </is>
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>24</t>
         </is>
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>F-C</t>
         </is>
       </c>
       <c r="F173" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>3</t>
         </is>
       </c>
       <c r="G173" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>3</t>
         </is>
       </c>
       <c r="H173" t="inlineStr">
         <is>
-          <t>38.7%</t>
+          <t>9.1%</t>
         </is>
       </c>
       <c r="I173" t="inlineStr">
         <is>
-          <t>0.3</t>
+          <t>0.7</t>
         </is>
       </c>
       <c r="J173" t="inlineStr">
@@ -11614,17 +11614,17 @@
       </c>
       <c r="K173" t="inlineStr">
         <is>
-          <t>25.0</t>
+          <t>50.0</t>
         </is>
       </c>
       <c r="L173" t="inlineStr">
         <is>
-          <t>34.0</t>
+          <t>39.2</t>
         </is>
       </c>
       <c r="M173" t="inlineStr">
         <is>
-          <t>-9.0</t>
+          <t>10.9</t>
         </is>
       </c>
     </row>
@@ -11634,42 +11634,42 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>Kristaps Porzingis</t>
+          <t>Matt Thomas</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>DAL</t>
+          <t>TOR</t>
         </is>
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>25</t>
         </is>
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>F-C</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F174" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>9</t>
         </is>
       </c>
       <c r="G174" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>6</t>
         </is>
       </c>
       <c r="H174" t="inlineStr">
         <is>
-          <t>9.1%</t>
+          <t>38.7%</t>
         </is>
       </c>
       <c r="I174" t="inlineStr">
         <is>
-          <t>0.7</t>
+          <t>0.3</t>
         </is>
       </c>
       <c r="J174" t="inlineStr">
@@ -11679,17 +11679,17 @@
       </c>
       <c r="K174" t="inlineStr">
         <is>
-          <t>50.0</t>
+          <t>25.0</t>
         </is>
       </c>
       <c r="L174" t="inlineStr">
         <is>
-          <t>39.2</t>
+          <t>34.0</t>
         </is>
       </c>
       <c r="M174" t="inlineStr">
         <is>
-          <t>10.9</t>
+          <t>-9.0</t>
         </is>
       </c>
     </row>
@@ -11699,17 +11699,17 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>Keita Bates-Diop</t>
+          <t>Solomon Hill</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>DEN</t>
+          <t>MIA</t>
         </is>
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>29</t>
         </is>
       </c>
       <c r="E175" t="inlineStr">
@@ -11719,17 +11719,17 @@
       </c>
       <c r="F175" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>6</t>
         </is>
       </c>
       <c r="G175" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>6</t>
         </is>
       </c>
       <c r="H175" t="inlineStr">
         <is>
-          <t>33.3%</t>
+          <t>50.0%</t>
         </is>
       </c>
       <c r="I175" t="inlineStr">
@@ -11749,12 +11749,12 @@
       </c>
       <c r="L175" t="inlineStr">
         <is>
-          <t>31.9</t>
+          <t>35.3</t>
         </is>
       </c>
       <c r="M175" t="inlineStr">
         <is>
-          <t>-6.9</t>
+          <t>-10.3</t>
         </is>
       </c>
     </row>
@@ -12024,22 +12024,22 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>Amir Coffey</t>
+          <t>Kyle O'Quinn</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>LAC</t>
+          <t>PHI</t>
         </is>
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>30</t>
         </is>
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>G-F</t>
+          <t>C-F</t>
         </is>
       </c>
       <c r="F180" t="inlineStr">
@@ -12054,12 +12054,12 @@
       </c>
       <c r="H180" t="inlineStr">
         <is>
-          <t>50.0%</t>
+          <t>33.3%</t>
         </is>
       </c>
       <c r="I180" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="J180" t="inlineStr">
@@ -12069,17 +12069,17 @@
       </c>
       <c r="K180" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>100</t>
         </is>
       </c>
       <c r="L180" t="inlineStr">
         <is>
-          <t>22.2</t>
+          <t>35.3</t>
         </is>
       </c>
       <c r="M180" t="inlineStr">
         <is>
-          <t>-22.2</t>
+          <t>64.7</t>
         </is>
       </c>
     </row>
@@ -12089,42 +12089,42 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>Tremont Waters</t>
+          <t>Dzanan Musa</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>BKN</t>
         </is>
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>21</t>
         </is>
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>G-F</t>
         </is>
       </c>
       <c r="F181" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="G181" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="H181" t="inlineStr">
         <is>
-          <t>100.0%</t>
+          <t>20.0%</t>
         </is>
       </c>
       <c r="I181" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0.5</t>
         </is>
       </c>
       <c r="J181" t="inlineStr">
@@ -12134,17 +12134,17 @@
       </c>
       <c r="K181" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>50.0</t>
         </is>
       </c>
       <c r="L181" t="inlineStr">
         <is>
-          <t>39.1</t>
+          <t>42.9</t>
         </is>
       </c>
       <c r="M181" t="inlineStr">
         <is>
-          <t>-39.1</t>
+          <t>7.2</t>
         </is>
       </c>
     </row>
@@ -12154,17 +12154,17 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>Sterling Brown</t>
+          <t>Malcolm Miller</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>MIL</t>
+          <t>TOR</t>
         </is>
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>27</t>
         </is>
       </c>
       <c r="E182" t="inlineStr">
@@ -12184,32 +12184,32 @@
       </c>
       <c r="H182" t="inlineStr">
         <is>
-          <t>50.0%</t>
+          <t>100.0%</t>
         </is>
       </c>
       <c r="I182" t="inlineStr">
         <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J182" t="inlineStr">
+        <is>
           <t>1.0</t>
         </is>
       </c>
-      <c r="J182" t="inlineStr">
-        <is>
-          <t>1.0</t>
-        </is>
-      </c>
       <c r="K182" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="L182" t="inlineStr">
         <is>
-          <t>36.0</t>
+          <t>34.8</t>
         </is>
       </c>
       <c r="M182" t="inlineStr">
         <is>
-          <t>64.0</t>
+          <t>-34.8</t>
         </is>
       </c>
     </row>
@@ -12219,7 +12219,7 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>Frank Mason III</t>
+          <t>Sterling Brown</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
@@ -12229,12 +12229,12 @@
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>25</t>
         </is>
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>G-F</t>
         </is>
       </c>
       <c r="F183" t="inlineStr">
@@ -12254,7 +12254,7 @@
       </c>
       <c r="I183" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="J183" t="inlineStr">
@@ -12264,17 +12264,17 @@
       </c>
       <c r="K183" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>100</t>
         </is>
       </c>
       <c r="L183" t="inlineStr">
         <is>
-          <t>33.8</t>
+          <t>36.0</t>
         </is>
       </c>
       <c r="M183" t="inlineStr">
         <is>
-          <t>-33.8</t>
+          <t>64.0</t>
         </is>
       </c>
     </row>
@@ -12284,17 +12284,17 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>Chris Clemons</t>
+          <t>J.J. Barea</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>HOU</t>
+          <t>DAL</t>
         </is>
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>36</t>
         </is>
       </c>
       <c r="E184" t="inlineStr">
@@ -12314,7 +12314,7 @@
       </c>
       <c r="H184" t="inlineStr">
         <is>
-          <t>50.0%</t>
+          <t>100.0%</t>
         </is>
       </c>
       <c r="I184" t="inlineStr">
@@ -12334,12 +12334,12 @@
       </c>
       <c r="L184" t="inlineStr">
         <is>
-          <t>36.8</t>
+          <t>37.3</t>
         </is>
       </c>
       <c r="M184" t="inlineStr">
         <is>
-          <t>-36.8</t>
+          <t>-37.3</t>
         </is>
       </c>
     </row>
@@ -12349,17 +12349,17 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>J.J. Barea</t>
+          <t>Tremont Waters</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>DAL</t>
+          <t>BOS</t>
         </is>
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>22</t>
         </is>
       </c>
       <c r="E185" t="inlineStr">
@@ -12399,12 +12399,12 @@
       </c>
       <c r="L185" t="inlineStr">
         <is>
-          <t>37.3</t>
+          <t>39.1</t>
         </is>
       </c>
       <c r="M185" t="inlineStr">
         <is>
-          <t>-37.3</t>
+          <t>-39.1</t>
         </is>
       </c>
     </row>
@@ -12414,27 +12414,27 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>Lance Thomas</t>
+          <t>Javonte Green</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>BKN</t>
+          <t>BOS</t>
         </is>
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>26</t>
         </is>
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>G-F</t>
         </is>
       </c>
       <c r="F186" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G186" t="inlineStr">
@@ -12444,12 +12444,12 @@
       </c>
       <c r="H186" t="inlineStr">
         <is>
-          <t>40.0%</t>
+          <t>50.0%</t>
         </is>
       </c>
       <c r="I186" t="inlineStr">
         <is>
-          <t>0.5</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="J186" t="inlineStr">
@@ -12459,17 +12459,17 @@
       </c>
       <c r="K186" t="inlineStr">
         <is>
-          <t>50.0</t>
+          <t>100</t>
         </is>
       </c>
       <c r="L186" t="inlineStr">
         <is>
-          <t>31.8</t>
+          <t>38.7</t>
         </is>
       </c>
       <c r="M186" t="inlineStr">
         <is>
-          <t>18.3</t>
+          <t>61.3</t>
         </is>
       </c>
     </row>
@@ -12544,42 +12544,42 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>Malcolm Miller</t>
+          <t>Boban Marjanovic</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>TOR</t>
+          <t>DAL</t>
         </is>
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>31</t>
         </is>
       </c>
       <c r="E188" t="inlineStr">
         <is>
-          <t>G-F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="F188" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
       <c r="G188" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="H188" t="inlineStr">
         <is>
-          <t>100.0%</t>
+          <t>11.4%</t>
         </is>
       </c>
       <c r="I188" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0.4</t>
         </is>
       </c>
       <c r="J188" t="inlineStr">
@@ -12589,17 +12589,17 @@
       </c>
       <c r="K188" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>40.0</t>
         </is>
       </c>
       <c r="L188" t="inlineStr">
         <is>
-          <t>34.8</t>
+          <t>29.1</t>
         </is>
       </c>
       <c r="M188" t="inlineStr">
         <is>
-          <t>-34.8</t>
+          <t>10.9</t>
         </is>
       </c>
     </row>
@@ -12609,42 +12609,42 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>Dzanan Musa</t>
+          <t>Nigel Williams-Goss</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>BKN</t>
+          <t>UTA</t>
         </is>
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>25</t>
         </is>
       </c>
       <c r="E189" t="inlineStr">
         <is>
-          <t>G-F</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F189" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G189" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="H189" t="inlineStr">
         <is>
-          <t>20.0%</t>
+          <t>100.0%</t>
         </is>
       </c>
       <c r="I189" t="inlineStr">
         <is>
-          <t>0.5</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="J189" t="inlineStr">
@@ -12654,17 +12654,17 @@
       </c>
       <c r="K189" t="inlineStr">
         <is>
-          <t>50.0</t>
+          <t>100</t>
         </is>
       </c>
       <c r="L189" t="inlineStr">
         <is>
-          <t>42.9</t>
+          <t>35.5</t>
         </is>
       </c>
       <c r="M189" t="inlineStr">
         <is>
-          <t>7.2</t>
+          <t>64.5</t>
         </is>
       </c>
     </row>
@@ -12674,22 +12674,22 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>Joakim Noah</t>
+          <t>Frank Mason III</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>LAC</t>
+          <t>MIL</t>
         </is>
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>26</t>
         </is>
       </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t>F-C</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F190" t="inlineStr">
@@ -12704,7 +12704,7 @@
       </c>
       <c r="H190" t="inlineStr">
         <is>
-          <t>100.0%</t>
+          <t>50.0%</t>
         </is>
       </c>
       <c r="I190" t="inlineStr">
@@ -12724,12 +12724,12 @@
       </c>
       <c r="L190" t="inlineStr">
         <is>
-          <t>37.4</t>
+          <t>33.8</t>
         </is>
       </c>
       <c r="M190" t="inlineStr">
         <is>
-          <t>-37.4</t>
+          <t>-33.8</t>
         </is>
       </c>
     </row>
@@ -12739,42 +12739,42 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>Boban Marjanovic</t>
+          <t>Joakim Noah</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>DAL</t>
+          <t>LAC</t>
         </is>
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>35</t>
         </is>
       </c>
       <c r="E191" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>F-C</t>
         </is>
       </c>
       <c r="F191" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G191" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="H191" t="inlineStr">
         <is>
-          <t>11.4%</t>
+          <t>100.0%</t>
         </is>
       </c>
       <c r="I191" t="inlineStr">
         <is>
-          <t>0.4</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="J191" t="inlineStr">
@@ -12784,17 +12784,17 @@
       </c>
       <c r="K191" t="inlineStr">
         <is>
-          <t>40.0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="L191" t="inlineStr">
         <is>
-          <t>29.1</t>
+          <t>37.4</t>
         </is>
       </c>
       <c r="M191" t="inlineStr">
         <is>
-          <t>10.9</t>
+          <t>-37.4</t>
         </is>
       </c>
     </row>
@@ -12804,17 +12804,17 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>Nigel Williams-Goss</t>
+          <t>Chris Clemons</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>UTA</t>
+          <t>HOU</t>
         </is>
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>22</t>
         </is>
       </c>
       <c r="E192" t="inlineStr">
@@ -12834,32 +12834,32 @@
       </c>
       <c r="H192" t="inlineStr">
         <is>
-          <t>100.0%</t>
+          <t>50.0%</t>
         </is>
       </c>
       <c r="I192" t="inlineStr">
         <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J192" t="inlineStr">
+        <is>
           <t>1.0</t>
         </is>
       </c>
-      <c r="J192" t="inlineStr">
-        <is>
-          <t>1.0</t>
-        </is>
-      </c>
       <c r="K192" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="L192" t="inlineStr">
         <is>
-          <t>35.5</t>
+          <t>36.8</t>
         </is>
       </c>
       <c r="M192" t="inlineStr">
         <is>
-          <t>64.5</t>
+          <t>-36.8</t>
         </is>
       </c>
     </row>
@@ -12869,22 +12869,22 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>Kyle O'Quinn</t>
+          <t>Amir Coffey</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>PHI</t>
+          <t>LAC</t>
         </is>
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>23</t>
         </is>
       </c>
       <c r="E193" t="inlineStr">
         <is>
-          <t>C-F</t>
+          <t>G-F</t>
         </is>
       </c>
       <c r="F193" t="inlineStr">
@@ -12899,32 +12899,32 @@
       </c>
       <c r="H193" t="inlineStr">
         <is>
-          <t>33.3%</t>
+          <t>50.0%</t>
         </is>
       </c>
       <c r="I193" t="inlineStr">
         <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J193" t="inlineStr">
+        <is>
           <t>1.0</t>
         </is>
       </c>
-      <c r="J193" t="inlineStr">
-        <is>
-          <t>1.0</t>
-        </is>
-      </c>
       <c r="K193" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="L193" t="inlineStr">
         <is>
-          <t>35.3</t>
+          <t>22.2</t>
         </is>
       </c>
       <c r="M193" t="inlineStr">
         <is>
-          <t>64.7</t>
+          <t>-22.2</t>
         </is>
       </c>
     </row>
@@ -12999,62 +12999,62 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>Javonte Green</t>
+          <t>Lance Thomas</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>BKN</t>
         </is>
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>32</t>
         </is>
       </c>
       <c r="E195" t="inlineStr">
         <is>
-          <t>G-F</t>
+          <t>F</t>
         </is>
       </c>
       <c r="F195" t="inlineStr">
         <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G195" t="inlineStr">
+        <is>
           <t>1</t>
         </is>
       </c>
-      <c r="G195" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
       <c r="H195" t="inlineStr">
         <is>
-          <t>50.0%</t>
+          <t>40.0%</t>
         </is>
       </c>
       <c r="I195" t="inlineStr">
         <is>
+          <t>0.5</t>
+        </is>
+      </c>
+      <c r="J195" t="inlineStr">
+        <is>
           <t>1.0</t>
         </is>
       </c>
-      <c r="J195" t="inlineStr">
-        <is>
-          <t>1.0</t>
-        </is>
-      </c>
       <c r="K195" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>50.0</t>
         </is>
       </c>
       <c r="L195" t="inlineStr">
         <is>
-          <t>38.7</t>
+          <t>31.8</t>
         </is>
       </c>
       <c r="M195" t="inlineStr">
         <is>
-          <t>61.3</t>
+          <t>18.3</t>
         </is>
       </c>
     </row>
@@ -13454,42 +13454,42 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>Miye Oni</t>
+          <t>Jared Dudley</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>UTA</t>
+          <t>LAL</t>
         </is>
       </c>
       <c r="D202" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>34</t>
         </is>
       </c>
       <c r="E202" t="inlineStr">
         <is>
-          <t>G-F</t>
+          <t>F</t>
         </is>
       </c>
       <c r="F202" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>6</t>
         </is>
       </c>
       <c r="G202" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="H202" t="inlineStr">
         <is>
-          <t>25.0%</t>
+          <t>18.8%</t>
         </is>
       </c>
       <c r="I202" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0.3</t>
         </is>
       </c>
       <c r="J202" t="inlineStr">
@@ -13499,17 +13499,17 @@
       </c>
       <c r="K202" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>66.7</t>
         </is>
       </c>
       <c r="L202" t="inlineStr">
         <is>
-          <t>33.3</t>
+          <t>35.1</t>
         </is>
       </c>
       <c r="M202" t="inlineStr">
         <is>
-          <t>-33.3</t>
+          <t>31.6</t>
         </is>
       </c>
     </row>
@@ -13519,42 +13519,42 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>Jared Dudley</t>
+          <t>Miye Oni</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>LAL</t>
+          <t>UTA</t>
         </is>
       </c>
       <c r="D203" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>22</t>
         </is>
       </c>
       <c r="E203" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>G-F</t>
         </is>
       </c>
       <c r="F203" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>2</t>
         </is>
       </c>
       <c r="G203" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="H203" t="inlineStr">
         <is>
-          <t>18.8%</t>
+          <t>25.0%</t>
         </is>
       </c>
       <c r="I203" t="inlineStr">
         <is>
-          <t>0.3</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="J203" t="inlineStr">
@@ -13564,17 +13564,17 @@
       </c>
       <c r="K203" t="inlineStr">
         <is>
-          <t>66.7</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="L203" t="inlineStr">
         <is>
-          <t>35.1</t>
+          <t>33.3</t>
         </is>
       </c>
       <c r="M203" t="inlineStr">
         <is>
-          <t>31.6</t>
+          <t>-33.3</t>
         </is>
       </c>
     </row>
@@ -13714,22 +13714,22 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>Rodney McGruder</t>
+          <t>Mike Scott</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>LAC</t>
+          <t>PHI</t>
         </is>
       </c>
       <c r="D206" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>31</t>
         </is>
       </c>
       <c r="E206" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>F</t>
         </is>
       </c>
       <c r="F206" t="inlineStr">
@@ -13749,7 +13749,7 @@
       </c>
       <c r="I206" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0.3</t>
         </is>
       </c>
       <c r="J206" t="inlineStr">
@@ -13759,17 +13759,17 @@
       </c>
       <c r="K206" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>100</t>
         </is>
       </c>
       <c r="L206" t="inlineStr">
         <is>
-          <t>29.3</t>
+          <t>28.6</t>
         </is>
       </c>
       <c r="M206" t="inlineStr">
         <is>
-          <t>-29.3</t>
+          <t>71.4</t>
         </is>
       </c>
     </row>
@@ -13779,22 +13779,22 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>Mike Scott</t>
+          <t>Rodney McGruder</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>PHI</t>
+          <t>LAC</t>
         </is>
       </c>
       <c r="D207" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>28</t>
         </is>
       </c>
       <c r="E207" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F207" t="inlineStr">
@@ -13814,27 +13814,27 @@
       </c>
       <c r="I207" t="inlineStr">
         <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J207" t="inlineStr">
+        <is>
           <t>0.3</t>
         </is>
       </c>
-      <c r="J207" t="inlineStr">
-        <is>
-          <t>0.3</t>
-        </is>
-      </c>
       <c r="K207" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="L207" t="inlineStr">
         <is>
-          <t>28.6</t>
+          <t>29.3</t>
         </is>
       </c>
       <c r="M207" t="inlineStr">
         <is>
-          <t>71.4</t>
+          <t>-29.3</t>
         </is>
       </c>
     </row>
